--- a/sputnik/personal/ee/123ee.xlsx
+++ b/sputnik/personal/ee/123ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -54,11 +54,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,7 +248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,9 +280,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,6 +315,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -489,17 +491,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
@@ -513,7 +515,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="54" customHeight="1">
+    <row r="1" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -539,7 +541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1">
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>43819</v>
       </c>
@@ -555,7 +557,7 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" ht="17.25" customHeight="1">
+    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -569,7 +571,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>43852</v>
       </c>
@@ -598,7 +600,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -620,7 +622,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>43887</v>
       </c>
@@ -649,7 +651,7 @@
         <v>3423</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>1</v>
@@ -671,23 +673,74 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="F8" s="2" t="s">
-        <v>10</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>43930</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>11400</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" ref="D8:D9" si="2">C8-C6</f>
+        <v>600</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" ref="F8:F9" si="3">D8*E8</f>
+        <v>2694</v>
       </c>
       <c r="G8" s="10">
-        <f>SUM(G4:G7)</f>
-        <v>5462</v>
+        <f>SUM(F8,F9)</f>
+        <v>3423</v>
       </c>
       <c r="H8" s="10">
-        <f>SUM(H4:H7)</f>
-        <v>5462</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="F9" s="2"/>
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5900</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="3"/>
+        <v>729</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="10">
+        <f>SUM(G4:G9)</f>
+        <v>8885</v>
+      </c>
+      <c r="H10" s="10">
+        <f>SUM(H4:H9)</f>
+        <v>8885</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="2"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -697,12 +750,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -711,12 +764,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/123ee.xlsx
+++ b/sputnik/personal/ee/123ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -495,10 +495,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -725,22 +725,73 @@
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="2" t="s">
-        <v>10</v>
+      <c r="A10" s="8">
+        <v>43966</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>12000</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" ref="D10:D11" si="4">C10-C8</f>
+        <v>600</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" ref="F10:F11" si="5">D10*E10</f>
+        <v>2694</v>
       </c>
       <c r="G10" s="10">
-        <f>SUM(G4:G9)</f>
-        <v>8885</v>
+        <f>SUM(F10,F11)</f>
+        <v>3423</v>
       </c>
       <c r="H10" s="10">
-        <f>SUM(H4:H9)</f>
-        <v>8885</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="2"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6200</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="5"/>
+        <v>729</v>
+      </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="10">
+        <f>SUM(G4:G11)</f>
+        <v>12308</v>
+      </c>
+      <c r="H12" s="10">
+        <f>SUM(H4:H11)</f>
+        <v>12308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="2"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/123ee.xlsx
+++ b/sputnik/personal/ee/123ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -495,10 +495,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -776,22 +776,73 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="2" t="s">
-        <v>10</v>
+      <c r="A12" s="8">
+        <v>43997</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>12300</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" ref="D12:D13" si="6">C12-C10</f>
+        <v>300</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" ref="F12:F13" si="7">D12*E12</f>
+        <v>1347</v>
       </c>
       <c r="G12" s="10">
-        <f>SUM(G4:G11)</f>
-        <v>12308</v>
+        <f>SUM(F12,F13)</f>
+        <v>1833</v>
       </c>
       <c r="H12" s="10">
-        <f>SUM(H4:H11)</f>
-        <v>12308</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="2"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6400</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="7"/>
+        <v>486.00000000000006</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="10">
+        <f>SUM(G4:G13)</f>
+        <v>14141</v>
+      </c>
+      <c r="H14" s="10">
+        <f>SUM(H4:H13)</f>
+        <v>14141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="2"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/123ee.xlsx
+++ b/sputnik/personal/ee/123ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -495,10 +495,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -827,22 +827,76 @@
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="2" t="s">
-        <v>10</v>
+      <c r="A14" s="8">
+        <v>44039</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <v>12600</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" ref="D14:D15" si="8">C14-C12</f>
+        <v>300</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" ref="F14:F15" si="9">D14*E14</f>
+        <v>1413</v>
       </c>
       <c r="G14" s="10">
-        <f>SUM(G4:G13)</f>
-        <v>14141</v>
+        <f>SUM(F14,F15)</f>
+        <v>1923</v>
       </c>
       <c r="H14" s="10">
-        <f>SUM(H4:H13)</f>
-        <v>14141</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="2"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6600</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="9"/>
+        <v>509.99999999999994</v>
+      </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="10">
+        <f>SUM(G4:G15)</f>
+        <v>16064</v>
+      </c>
+      <c r="H16" s="10">
+        <f>SUM(H4:H15)</f>
+        <v>15974</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="2"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
+        <f>SUM(H16,-G16)</f>
+        <v>-90</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/123ee.xlsx
+++ b/sputnik/personal/ee/123ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -495,10 +495,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -878,23 +878,74 @@
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="2" t="s">
+      <c r="A16" s="8">
+        <v>44089</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>12900</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" ref="D16:D17" si="10">C16-C14</f>
+        <v>300</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" ref="F16:F17" si="11">D16*E16</f>
+        <v>1413</v>
+      </c>
+      <c r="G16" s="10">
+        <f>SUM(F16,F17)</f>
+        <v>1923</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6800</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="11"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G18" s="10">
         <f>SUM(G4:G15)</f>
         <v>16064</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H18" s="10">
         <f>SUM(H4:H15)</f>
         <v>15974</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" s="2"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10">
-        <f>SUM(H16,-G16)</f>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="2"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
+        <f>SUM(H18,-G18)</f>
         <v>-90</v>
       </c>
     </row>

--- a/sputnik/personal/ee/123ee.xlsx
+++ b/sputnik/personal/ee/123ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -495,10 +495,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -929,23 +929,74 @@
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="2" t="s">
+      <c r="A18" s="8">
+        <v>44144</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
+        <v>13200</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" ref="D18:D19" si="12">C18-C16</f>
+        <v>300</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" ref="F18:F19" si="13">D18*E18</f>
+        <v>1413</v>
+      </c>
+      <c r="G18" s="10">
+        <f>SUM(F18,F19)</f>
+        <v>1923</v>
+      </c>
+      <c r="H18" s="10">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>7000</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" si="12"/>
+        <v>200</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="13"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="10">
-        <f>SUM(G4:G15)</f>
-        <v>16064</v>
-      </c>
-      <c r="H18" s="10">
-        <f>SUM(H4:H15)</f>
-        <v>15974</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="2"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10">
-        <f>SUM(H18,-G18)</f>
+      <c r="G20" s="10">
+        <f>SUM(G4:G19)</f>
+        <v>19910</v>
+      </c>
+      <c r="H20" s="10">
+        <f>SUM(H4:H19)</f>
+        <v>19820</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10">
+        <f>SUM(H20,-G20)</f>
         <v>-90</v>
       </c>
     </row>

--- a/sputnik/personal/ee/123ee.xlsx
+++ b/sputnik/personal/ee/123ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -495,10 +495,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -541,15 +541,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
-        <v>43819</v>
+        <v>44039</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6">
-        <v>9800</v>
+        <v>12600</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
@@ -557,13 +557,13 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>5200</v>
+        <v>6600</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="3"/>
@@ -573,31 +573,31 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
-        <v>43852</v>
+        <v>44089</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="6">
-        <v>10200</v>
+        <v>12900</v>
       </c>
       <c r="D4" s="6">
-        <f>C4-C2</f>
-        <v>400</v>
+        <f t="shared" ref="D4:D5" si="0">C4-C2</f>
+        <v>300</v>
       </c>
       <c r="E4" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F4" s="11">
-        <f t="shared" ref="F4:F7" si="0">D4*E4</f>
-        <v>1796</v>
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>1413</v>
       </c>
       <c r="G4" s="10">
         <f>SUM(F4,F5)</f>
-        <v>2039</v>
+        <v>1923</v>
       </c>
       <c r="H4" s="10">
-        <v>2039</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -606,49 +606,49 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>5300</v>
+        <v>6800</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" ref="D5:D7" si="1">C5-C3</f>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="E5" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="12">
-        <f t="shared" si="0"/>
-        <v>243.00000000000003</v>
+        <f t="shared" si="1"/>
+        <v>509.99999999999994</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <v>43887</v>
+        <v>44144</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="6">
-        <v>10800</v>
+        <v>13200</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" si="1"/>
-        <v>600</v>
+        <f t="shared" ref="D6:D7" si="2">C6-C4</f>
+        <v>300</v>
       </c>
       <c r="E6" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F6" s="11">
-        <f t="shared" si="0"/>
-        <v>2694</v>
+        <f t="shared" ref="F6:F7" si="3">D6*E6</f>
+        <v>1413</v>
       </c>
       <c r="G6" s="10">
         <f>SUM(F6,F7)</f>
-        <v>3423</v>
+        <v>1923</v>
       </c>
       <c r="H6" s="10">
-        <v>3423</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -657,49 +657,49 @@
         <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>5600</v>
+        <v>7000</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" si="1"/>
-        <v>300</v>
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
       <c r="E7" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="12">
-        <f t="shared" si="0"/>
-        <v>729</v>
+        <f t="shared" si="3"/>
+        <v>509.99999999999994</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
-        <v>43930</v>
+        <v>44179</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="6">
-        <v>11400</v>
+        <v>13500</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" ref="D8:D9" si="2">C8-C6</f>
-        <v>600</v>
+        <f t="shared" ref="D8:D9" si="4">C8-C6</f>
+        <v>300</v>
       </c>
       <c r="E8" s="7">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F8" s="11">
-        <f t="shared" ref="F8:F9" si="3">D8*E8</f>
-        <v>2694</v>
+        <f t="shared" ref="F8:F9" si="5">D8*E8</f>
+        <v>1413</v>
       </c>
       <c r="G8" s="10">
         <f>SUM(F8,F9)</f>
-        <v>3423</v>
+        <v>1923</v>
       </c>
       <c r="H8" s="10">
-        <v>3423</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -708,296 +708,41 @@
         <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>5900</v>
+        <v>7200</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="2"/>
-        <v>300</v>
+        <f t="shared" si="4"/>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="12">
-        <f t="shared" si="3"/>
-        <v>729</v>
+        <f t="shared" si="5"/>
+        <v>509.99999999999994</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>43966</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="10">
+        <f>SUM(G2:G7)</f>
+        <v>3846</v>
+      </c>
+      <c r="H10" s="10">
+        <f>SUM(H2:H7)</f>
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="2"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10">
+        <f>SUM(H10,-G10)</f>
         <v>0</v>
-      </c>
-      <c r="C10" s="6">
-        <v>12000</v>
-      </c>
-      <c r="D10" s="6">
-        <f t="shared" ref="D10:D11" si="4">C10-C8</f>
-        <v>600</v>
-      </c>
-      <c r="E10" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="11">
-        <f t="shared" ref="F10:F11" si="5">D10*E10</f>
-        <v>2694</v>
-      </c>
-      <c r="G10" s="10">
-        <f>SUM(F10,F11)</f>
-        <v>3423</v>
-      </c>
-      <c r="H10" s="10">
-        <v>3423</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>6200</v>
-      </c>
-      <c r="D11" s="6">
-        <f t="shared" si="4"/>
-        <v>300</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="12">
-        <f t="shared" si="5"/>
-        <v>729</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>43997</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="6">
-        <v>12300</v>
-      </c>
-      <c r="D12" s="6">
-        <f t="shared" ref="D12:D13" si="6">C12-C10</f>
-        <v>300</v>
-      </c>
-      <c r="E12" s="7">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="11">
-        <f t="shared" ref="F12:F13" si="7">D12*E12</f>
-        <v>1347</v>
-      </c>
-      <c r="G12" s="10">
-        <f>SUM(F12,F13)</f>
-        <v>1833</v>
-      </c>
-      <c r="H12" s="10">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>6400</v>
-      </c>
-      <c r="D13" s="6">
-        <f t="shared" si="6"/>
-        <v>200</v>
-      </c>
-      <c r="E13" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="12">
-        <f t="shared" si="7"/>
-        <v>486.00000000000006</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>44039</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="6">
-        <v>12600</v>
-      </c>
-      <c r="D14" s="6">
-        <f t="shared" ref="D14:D15" si="8">C14-C12</f>
-        <v>300</v>
-      </c>
-      <c r="E14" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F14" s="11">
-        <f t="shared" ref="F14:F15" si="9">D14*E14</f>
-        <v>1413</v>
-      </c>
-      <c r="G14" s="10">
-        <f>SUM(F14,F15)</f>
-        <v>1923</v>
-      </c>
-      <c r="H14" s="10">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>6600</v>
-      </c>
-      <c r="D15" s="6">
-        <f t="shared" si="8"/>
-        <v>200</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F15" s="12">
-        <f t="shared" si="9"/>
-        <v>509.99999999999994</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>44089</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="6">
-        <v>12900</v>
-      </c>
-      <c r="D16" s="6">
-        <f t="shared" ref="D16:D17" si="10">C16-C14</f>
-        <v>300</v>
-      </c>
-      <c r="E16" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F16" s="11">
-        <f t="shared" ref="F16:F17" si="11">D16*E16</f>
-        <v>1413</v>
-      </c>
-      <c r="G16" s="10">
-        <f>SUM(F16,F17)</f>
-        <v>1923</v>
-      </c>
-      <c r="H16" s="10">
-        <v>1923</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>6800</v>
-      </c>
-      <c r="D17" s="6">
-        <f t="shared" si="10"/>
-        <v>200</v>
-      </c>
-      <c r="E17" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F17" s="12">
-        <f t="shared" si="11"/>
-        <v>509.99999999999994</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>44144</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="6">
-        <v>13200</v>
-      </c>
-      <c r="D18" s="6">
-        <f t="shared" ref="D18:D19" si="12">C18-C16</f>
-        <v>300</v>
-      </c>
-      <c r="E18" s="7">
-        <v>4.71</v>
-      </c>
-      <c r="F18" s="11">
-        <f t="shared" ref="F18:F19" si="13">D18*E18</f>
-        <v>1413</v>
-      </c>
-      <c r="G18" s="10">
-        <f>SUM(F18,F19)</f>
-        <v>1923</v>
-      </c>
-      <c r="H18" s="10">
-        <v>1923</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>7000</v>
-      </c>
-      <c r="D19" s="6">
-        <f t="shared" si="12"/>
-        <v>200</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="F19" s="12">
-        <f t="shared" si="13"/>
-        <v>509.99999999999994</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="10">
-        <f>SUM(G4:G19)</f>
-        <v>19910</v>
-      </c>
-      <c r="H20" s="10">
-        <f>SUM(H4:H19)</f>
-        <v>19820</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10">
-        <f>SUM(H20,-G20)</f>
-        <v>-90</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/123ee.xlsx
+++ b/sputnik/personal/ee/123ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -495,10 +495,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -725,23 +725,74 @@
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F10" s="2" t="s">
+      <c r="A10" s="8">
+        <v>44210</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>14000</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" ref="D10:D11" si="6">C10-C8</f>
+        <v>500</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
+        <v>2355</v>
+      </c>
+      <c r="G10" s="10">
+        <f>SUM(F10,F11)</f>
+        <v>3120</v>
+      </c>
+      <c r="H10" s="10">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7500</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="7"/>
+        <v>765</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G12" s="10">
         <f>SUM(G2:G7)</f>
         <v>3846</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H12" s="10">
         <f>SUM(H2:H7)</f>
         <v>3846</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="2"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10">
-        <f>SUM(H10,-G10)</f>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="2"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10">
+        <f>SUM(H12,-G12)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/123ee.xlsx
+++ b/sputnik/personal/ee/123ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -495,10 +495,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -776,23 +776,176 @@
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="2" t="s">
+      <c r="A12" s="8">
+        <v>44232</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>14800</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" ref="D12:D13" si="8">C12-C10</f>
+        <v>800</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="11">
+        <f t="shared" ref="F12:F13" si="9">D12*E12</f>
+        <v>3768</v>
+      </c>
+      <c r="G12" s="10">
+        <f>SUM(F12,F13)</f>
+        <v>4278</v>
+      </c>
+      <c r="H12" s="10">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7700</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="9"/>
+        <v>509.99999999999994</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>44264</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <v>15300</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" ref="D14:D15" si="10">C14-C12</f>
+        <v>500</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" ref="F14:F15" si="11">D14*E14</f>
+        <v>2355</v>
+      </c>
+      <c r="G14" s="10">
+        <f>SUM(F14,F15)</f>
+        <v>3120</v>
+      </c>
+      <c r="H14" s="10">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>8000</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="11"/>
+        <v>765</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>44300</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>15800</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" ref="D16:D17" si="12">C16-C14</f>
+        <v>500</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" ref="F16:F17" si="13">D16*E16</f>
+        <v>2355</v>
+      </c>
+      <c r="G16" s="10">
+        <f>SUM(F16,F17)</f>
+        <v>3120</v>
+      </c>
+      <c r="H16" s="10">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>8300</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="12"/>
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="13"/>
+        <v>765</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G18" s="10">
         <f>SUM(G2:G7)</f>
         <v>3846</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H18" s="10">
         <f>SUM(H2:H7)</f>
         <v>3846</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="2"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10">
-        <f>SUM(H12,-G12)</f>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="2"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
+        <f>SUM(H18,-G18)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/123ee.xlsx
+++ b/sputnik/personal/ee/123ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -495,10 +495,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -929,23 +929,74 @@
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F18" s="2" t="s">
+      <c r="A18" s="8">
+        <v>44340</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
+        <v>16300</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" ref="D18:D19" si="14">C18-C16</f>
+        <v>500</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="11">
+        <f t="shared" ref="F18:F19" si="15">D18*E18</f>
+        <v>2355</v>
+      </c>
+      <c r="G18" s="10">
+        <f>SUM(F18,F19)</f>
+        <v>3120</v>
+      </c>
+      <c r="H18" s="10">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>8600</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" si="14"/>
+        <v>300</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="15"/>
+        <v>765</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G20" s="10">
         <f>SUM(G2:G7)</f>
         <v>3846</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H20" s="10">
         <f>SUM(H2:H7)</f>
         <v>3846</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F19" s="2"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10">
-        <f>SUM(H18,-G18)</f>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="2"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10">
+        <f>SUM(H20,-G20)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/123ee.xlsx
+++ b/sputnik/personal/ee/123ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -495,10 +495,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -980,23 +980,74 @@
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="2" t="s">
+      <c r="A20" s="8">
+        <v>44382</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6">
+        <v>16800</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" ref="D20:D21" si="16">C20-C18</f>
+        <v>500</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" ref="F20:F21" si="17">D20*E20</f>
+        <v>2355</v>
+      </c>
+      <c r="G20" s="10">
+        <f>SUM(F20,F21)</f>
+        <v>3120</v>
+      </c>
+      <c r="H20" s="10">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>8900</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="16"/>
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="12">
+        <f t="shared" si="17"/>
+        <v>765</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G22" s="10">
         <f>SUM(G2:G7)</f>
         <v>3846</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H22" s="10">
         <f>SUM(H2:H7)</f>
         <v>3846</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="2"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10">
-        <f>SUM(H20,-G20)</f>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="2"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10">
+        <f>SUM(H22,-G22)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/123ee.xlsx
+++ b/sputnik/personal/ee/123ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -495,10 +495,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1031,23 +1031,74 @@
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="2" t="s">
+      <c r="A22" s="8">
+        <v>44411</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6">
+        <v>17200</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" ref="D22:D23" si="18">C22-C20</f>
+        <v>400</v>
+      </c>
+      <c r="E22" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F22" s="11">
+        <f t="shared" ref="F22:F23" si="19">D22*E22</f>
+        <v>1984</v>
+      </c>
+      <c r="G22" s="10">
+        <f>SUM(F22,F23)</f>
+        <v>2520</v>
+      </c>
+      <c r="H22" s="10">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>9100</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="18"/>
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="19"/>
+        <v>536</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G24" s="10">
         <f>SUM(G2:G7)</f>
         <v>3846</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H24" s="10">
         <f>SUM(H2:H7)</f>
         <v>3846</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="2"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10">
-        <f>SUM(H22,-G22)</f>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" s="2"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10">
+        <f>SUM(H24,-G24)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/123ee.xlsx
+++ b/sputnik/personal/ee/123ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -495,10 +495,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1030,7 +1030,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>44411</v>
       </c>
@@ -1082,23 +1082,74 @@
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F24" s="2" t="s">
+      <c r="A24" s="8">
+        <v>44459</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6">
+        <v>17700</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" ref="D24:D25" si="20">C24-C22</f>
+        <v>500</v>
+      </c>
+      <c r="E24" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F24" s="11">
+        <f t="shared" ref="F24:F25" si="21">D24*E24</f>
+        <v>2480</v>
+      </c>
+      <c r="G24" s="10">
+        <f>SUM(F24,F25)</f>
+        <v>3552</v>
+      </c>
+      <c r="H24" s="10">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>9500</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" si="20"/>
+        <v>400</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F25" s="12">
+        <f t="shared" si="21"/>
+        <v>1072</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G26" s="10">
         <f>SUM(G2:G7)</f>
         <v>3846</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H26" s="10">
         <f>SUM(H2:H7)</f>
         <v>3846</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F25" s="2"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10">
-        <f>SUM(H24,-G24)</f>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" s="2"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10">
+        <f>SUM(H26,-G26)</f>
         <v>0</v>
       </c>
     </row>

--- a/sputnik/personal/ee/123ee.xlsx
+++ b/sputnik/personal/ee/123ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -495,10 +495,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1133,24 +1133,126 @@
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F26" s="2" t="s">
+      <c r="A26" s="8">
+        <v>44509</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6">
+        <v>18200</v>
+      </c>
+      <c r="D26" s="6">
+        <f t="shared" ref="D26:D27" si="22">C26-C24</f>
+        <v>500</v>
+      </c>
+      <c r="E26" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F26" s="11">
+        <f t="shared" ref="F26:F27" si="23">D26*E26</f>
+        <v>2480</v>
+      </c>
+      <c r="G26" s="10">
+        <f>SUM(F26,F27)</f>
+        <v>3284</v>
+      </c>
+      <c r="H26" s="10">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>9800</v>
+      </c>
+      <c r="D27" s="6">
+        <f t="shared" si="22"/>
+        <v>300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F27" s="12">
+        <f t="shared" si="23"/>
+        <v>804</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>44547</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6">
+        <v>18700</v>
+      </c>
+      <c r="D28" s="6">
+        <f t="shared" ref="D28:D29" si="24">C28-C26</f>
+        <v>500</v>
+      </c>
+      <c r="E28" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F28" s="11">
+        <f t="shared" ref="F28:F29" si="25">D28*E28</f>
+        <v>2480</v>
+      </c>
+      <c r="G28" s="10">
+        <f>SUM(F28,F29)</f>
+        <v>3284</v>
+      </c>
+      <c r="H28" s="10">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>10100</v>
+      </c>
+      <c r="D29" s="6">
+        <f t="shared" si="24"/>
+        <v>300</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F29" s="12">
+        <f t="shared" si="25"/>
+        <v>804</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G26" s="10">
-        <f>SUM(G2:G7)</f>
-        <v>3846</v>
-      </c>
-      <c r="H26" s="10">
-        <f>SUM(H2:H7)</f>
-        <v>3846</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F27" s="2"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10">
-        <f>SUM(H26,-G26)</f>
-        <v>0</v>
+      <c r="G30" s="10">
+        <f>SUM(G2:G27)</f>
+        <v>35003</v>
+      </c>
+      <c r="H30" s="10">
+        <f>SUM(H2:H27)</f>
+        <v>34407</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F31" s="2"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10">
+        <f>SUM(H30,-G30)</f>
+        <v>-596</v>
       </c>
     </row>
   </sheetData>
